--- a/auto_explain/auto_explain.xlsx
+++ b/auto_explain/auto_explain.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00DC95-A9AF-4FC4-9CF3-5935D3D269DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F5AD1-72FC-492E-8A6C-D91379505DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
   <si>
     <t>auto_explain</t>
     <phoneticPr fontId="2"/>
@@ -115,21 +115,12 @@
     <t>auto_explain.log_level (enum)</t>
   </si>
   <si>
-    <t>auto_explain.log_levelは、auto_explainが問い合わせ計画を記録するログレベルを選択します。 有効な値はDEBUG5、DEBUG4、DEBUG3、DEBUG2、DEBUG1、INFO、NOTICE、WARNING、LOGです。 デフォルトはLOGです。 スーパーユーザのみがこの設定を変更できます。</t>
-  </si>
-  <si>
     <t>auto_explain.log_nested_statements (boolean)</t>
   </si>
   <si>
-    <t>auto_explain.log_nested_statementsにより、入れ子状の文（関数内から実行される文）を考慮して記録するようになります。 無効ならば、最上位の問い合わせ計画のみが記録されます。 このパラメータはデフォルトで無効です。 スーパーユーザのみがこの設定を変更することができます。</t>
-  </si>
-  <si>
     <t>auto_explain.sample_rate (real)</t>
   </si>
   <si>
-    <t>auto_explain.sample_rateにより、auto_explainは各セッションで一部の文の実行計画のみをログに記録するようになります。 デフォルトは1で、すべての問い合わせの実行計画をログに記録します。 入れ子になった文の場合には、実行計画がすべてログに記録されるか、全くされないかのどちらかです。 スーパーユーザのみがこの設定を変更できます。</t>
-  </si>
-  <si>
     <t>auto_explain.log_buffersは実行計画のログを取得するときに、バッファ使用統計を出力するかどうかを制御します。 </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -190,6 +181,27 @@
   </si>
   <si>
     <t xml:space="preserve"> スーパーユーザのみがこの設定を変更することができます。</t>
+  </si>
+  <si>
+    <t>auto_explain.log_levelは、auto_explainが問い合わせ計画を記録するログレベルを選択します。 有効な値は</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEBUG5、DEBUG4、DEBUG3、DEBUG2、DEBUG1、INFO、NOTICE、WARNING、LOGです。 デフォルトはLOGです。 スーパーユーザのみがこの設定を変更できます。</t>
+  </si>
+  <si>
+    <t>auto_explain.log_nested_statementsにより、入れ子状の文（関数内から実行される文）を考慮して記録するようになります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 無効ならば、最上位の問い合わせ計画のみが記録されます。 このパラメータはデフォルトで無効です。 スーパーユーザのみがこの設定を変更することができます。</t>
+  </si>
+  <si>
+    <t>auto_explain.sample_rateにより、auto_explainは各セッションで一部の文の実行計画のみをログに記録するようになります。 デフォルトは1で、すべての問い合わせの実行計画をログに記録します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 入れ子になった文の場合には、実行計画がすべてログに記録されるか、全くされないかのどちらかです。 スーパーユーザのみがこの設定を変更できます。</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C64"/>
+  <dimension ref="B1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -699,17 +711,17 @@
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="6" customFormat="1">
@@ -719,17 +731,17 @@
     </row>
     <row r="31" spans="2:3">
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:3" s="6" customFormat="1">
@@ -739,22 +751,22 @@
     </row>
     <row r="35" spans="2:3">
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:3" s="6" customFormat="1">
@@ -764,12 +776,12 @@
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="6" customFormat="1">
@@ -779,12 +791,12 @@
     </row>
     <row r="43" spans="2:3">
       <c r="C43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="C44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="6" customFormat="1">
@@ -794,12 +806,12 @@
     </row>
     <row r="46" spans="2:3">
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:3" s="6" customFormat="1">
@@ -809,42 +821,57 @@
     </row>
     <row r="49" spans="2:3">
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" s="6" customFormat="1">
+      <c r="B51" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" s="6" customFormat="1">
+      <c r="B54" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
-        <v>27</v>
+      <c r="C56" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" s="6" customFormat="1">
+      <c r="B57" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>31</v>
+      <c r="C58" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
